--- a/[norm]_ads14-ads14.xlsx
+++ b/[norm]_ads14-ads14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpvru\py_repo\melt_curve_proc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBC7816-D4A5-4941-91E2-DEED6FD1B6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2429ABB0-8897-4D11-8C4D-BEBE78BBFAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C79E494-FDA7-46B2-8199-13238CB7B280}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>T</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>average</t>
+  </si>
+  <si>
+    <t>buffer</t>
   </si>
 </sst>
 </file>
@@ -416,15 +419,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A82763-FFDD-4215-AD7D-0E4CBB387E4B}">
-  <dimension ref="A1:K302"/>
+  <dimension ref="A1:M302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,8 +458,11 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -485,11 +491,14 @@
         <v>1461935.5</v>
       </c>
       <c r="K2">
-        <f>AVERAGE(B2:I2)</f>
-        <v>1262087.3125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <f>AVERAGE(B2:I2)-M2</f>
+        <v>1254534.7445788621</v>
+      </c>
+      <c r="M2">
+        <v>7552.5679211379902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.3</v>
       </c>
@@ -518,11 +527,14 @@
         <v>1451966.25</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="0">AVERAGE(B3:I3)</f>
-        <v>1253310.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K3:K66" si="0">AVERAGE(B3:I3)-M3</f>
+        <v>1245805.6297800657</v>
+      </c>
+      <c r="M3">
+        <v>7504.8702199342897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.6</v>
       </c>
@@ -552,10 +564,13 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>1244398.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1236940.5825645053</v>
+      </c>
+      <c r="M4">
+        <v>7457.66743549479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.9</v>
       </c>
@@ -585,10 +600,13 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>1236179.4140625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1228768.4602451515</v>
+      </c>
+      <c r="M5">
+        <v>7410.9538173485498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6.2</v>
       </c>
@@ -618,10 +636,13 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>1228267.328125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1220902.6045099753</v>
+      </c>
+      <c r="M6">
+        <v>7364.7236150246099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.5</v>
       </c>
@@ -650,11 +671,14 @@
         <v>1414457</v>
       </c>
       <c r="K7">
-        <f>AVERAGE(B7:I7)</f>
-        <v>1220202.1875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1212883.216421948</v>
+      </c>
+      <c r="M7">
+        <v>7318.97107805203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6.8</v>
       </c>
@@ -684,10 +708,13 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>1212743.71875</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1205470.0282940401</v>
+      </c>
+      <c r="M8">
+        <v>7273.6904559598597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7.1</v>
       </c>
@@ -717,10 +744,13 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>1205262.671875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1198033.7958767228</v>
+      </c>
+      <c r="M9">
+        <v>7228.8759982771298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7.4</v>
       </c>
@@ -750,10 +780,13 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>1196862.3359375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1189677.8139829671</v>
+      </c>
+      <c r="M10">
+        <v>7184.5219545329301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7.7</v>
       </c>
@@ -783,10 +816,13 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>1189002.625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1181862.0024257437</v>
+      </c>
+      <c r="M11">
+        <v>7140.6225742562801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -816,10 +852,13 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>1181818.8046875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1174721.6325805238</v>
+      </c>
+      <c r="M12">
+        <v>7097.1721069762298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8.3000000000000007</v>
       </c>
@@ -849,10 +888,13 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>1173602.40625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1166548.2414477782</v>
+      </c>
+      <c r="M13">
+        <v>7054.1648022218496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8.6</v>
       </c>
@@ -882,10 +924,13 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>1165986.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1158974.6550904778</v>
+      </c>
+      <c r="M14">
+        <v>7011.5949095221804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.9</v>
       </c>
@@ -915,10 +960,13 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>1157723.6015625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1150754.1448840937</v>
+      </c>
+      <c r="M15">
+        <v>6969.4566784062799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9.1999999999999993</v>
       </c>
@@ -948,10 +996,13 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>1150653.6796875</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1143725.9353290969</v>
+      </c>
+      <c r="M16">
+        <v>6927.7443584031898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9.5</v>
       </c>
@@ -981,10 +1032,13 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>1142610.046875</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1135723.5946759582</v>
+      </c>
+      <c r="M17">
+        <v>6886.4521990419598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9.8000000000000007</v>
       </c>
@@ -1014,10 +1068,13 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>1134902.0078125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1128056.4333626484</v>
+      </c>
+      <c r="M18">
+        <v>6845.5744498516497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10.1</v>
       </c>
@@ -1047,10 +1104,13 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>1127252.46875</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1120447.3633896387</v>
+      </c>
+      <c r="M19">
+        <v>6805.10536036131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10.4</v>
       </c>
@@ -1080,10 +1140,13 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>1119645.46875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1112880.4295699</v>
+      </c>
+      <c r="M20">
+        <v>6765.0391800999796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10.7</v>
       </c>
@@ -1113,10 +1176,13 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>1112262.125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1105536.7548414033</v>
+      </c>
+      <c r="M21">
+        <v>6725.3701585967301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11</v>
       </c>
@@ -1146,10 +1212,13 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>1104528.03125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1097841.9387046194</v>
+      </c>
+      <c r="M22">
+        <v>6686.0925453805903</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11.3</v>
       </c>
@@ -1179,10 +1248,13 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>1096531.234375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1089884.0337850193</v>
+      </c>
+      <c r="M23">
+        <v>6647.20058998062</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11.6</v>
       </c>
@@ -1212,10 +1284,13 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>1089245.890625</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1082637.202083074</v>
+      </c>
+      <c r="M24">
+        <v>6608.6885419258697</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11.9</v>
       </c>
@@ -1245,10 +1320,13 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>1081768.4765625</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1075197.9259117546</v>
+      </c>
+      <c r="M25">
+        <v>6570.5506507454002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12.2</v>
       </c>
@@ -1278,10 +1356,13 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>1074185.9453125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1067653.1641465318</v>
+      </c>
+      <c r="M26">
+        <v>6532.7811659682502</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12.5</v>
       </c>
@@ -1311,10 +1392,13 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>1066390.28125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1059894.9069128765</v>
+      </c>
+      <c r="M27">
+        <v>6495.3743371234696</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>12.8</v>
       </c>
@@ -1344,10 +1428,13 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>1059092.7734375</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1052634.4490237599</v>
+      </c>
+      <c r="M28">
+        <v>6458.3244137401298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>13.1</v>
       </c>
@@ -1377,10 +1464,13 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>1051504.734375</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1045083.1087296527</v>
+      </c>
+      <c r="M29">
+        <v>6421.6256453472497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>13.4</v>
       </c>
@@ -1410,10 +1500,13 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>1043682.953125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1037297.680843526</v>
+      </c>
+      <c r="M30">
+        <v>6385.27228147391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>13.7</v>
       </c>
@@ -1443,10 +1536,13 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>1036245.140625</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1029895.8820533509</v>
+      </c>
+      <c r="M31">
+        <v>6349.2585716491303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>14</v>
       </c>
@@ -1476,10 +1572,13 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>1028886.40625</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1022572.827484598</v>
+      </c>
+      <c r="M32">
+        <v>6313.5787654019996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>14.3</v>
       </c>
@@ -1509,10 +1608,13 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>1021449.296875</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1015171.0697627384</v>
+      </c>
+      <c r="M33">
+        <v>6278.2271122615402</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>14.6</v>
       </c>
@@ -1542,10 +1644,13 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>1013933.9609375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1007690.7630757432</v>
+      </c>
+      <c r="M34">
+        <v>6243.1978617568102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>14.9</v>
       </c>
@@ -1575,10 +1680,13 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>1006282.3125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1000073.8272365831</v>
+      </c>
+      <c r="M35">
+        <v>6208.4852634168601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>15.2</v>
       </c>
@@ -1608,10 +1716,13 @@
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>998582.6953125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>992408.61174572923</v>
+      </c>
+      <c r="M36">
+        <v>6174.0835667707497</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>15.5</v>
       </c>
@@ -1641,10 +1752,13 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>991712.578125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>985572.59110365249</v>
+      </c>
+      <c r="M37">
+        <v>6139.9870213475197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>15.8</v>
       </c>
@@ -1674,10 +1788,13 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>984310.625</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>978204.43512332381</v>
+      </c>
+      <c r="M38">
+        <v>6106.1898766762297</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>16.100000000000001</v>
       </c>
@@ -1707,10 +1824,13 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>976531.421875</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>970458.7354927141</v>
+      </c>
+      <c r="M39">
+        <v>6072.6863822859204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>16.399999999999999</v>
       </c>
@@ -1740,10 +1860,13 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>969722.71875</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>963683.24796229438</v>
+      </c>
+      <c r="M40">
+        <v>6039.4707877056399</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>16.7</v>
       </c>
@@ -1773,10 +1896,13 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>961939.7265625</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>955933.18922003557</v>
+      </c>
+      <c r="M41">
+        <v>6006.5373424644604</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>17</v>
       </c>
@@ -1806,10 +1932,13 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>953891.1875</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>947917.30720390857</v>
+      </c>
+      <c r="M42">
+        <v>5973.8802960914099</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>17.3</v>
       </c>
@@ -1839,10 +1968,13 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>947239.625</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>941298.13110188441</v>
+      </c>
+      <c r="M43">
+        <v>5941.4938981155601</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>17.600000000000001</v>
       </c>
@@ -1872,10 +2004,13 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>939386.625</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>933477.25260193401</v>
+      </c>
+      <c r="M44">
+        <v>5909.3723980659397</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>17.899999999999999</v>
       </c>
@@ -1905,10 +2040,13 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>932471.953125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>926594.4430795284</v>
+      </c>
+      <c r="M45">
+        <v>5877.5100454716203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>18.2</v>
       </c>
@@ -1938,10 +2076,13 @@
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>925314.125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>919468.22391013836</v>
+      </c>
+      <c r="M46">
+        <v>5845.9010898616298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>18.5</v>
       </c>
@@ -1971,10 +2112,13 @@
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>917609.203125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>911794.66334423493</v>
+      </c>
+      <c r="M47">
+        <v>5814.5397807650497</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>18.8</v>
       </c>
@@ -2004,10 +2148,13 @@
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>911010.359375</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>905226.93900728913</v>
+      </c>
+      <c r="M48">
+        <v>5783.4203677108999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>19.100000000000001</v>
       </c>
@@ -2037,10 +2184,13 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>903355.109375</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>897602.57227477175</v>
+      </c>
+      <c r="M49">
+        <v>5752.53710022825</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>19.399999999999999</v>
       </c>
@@ -2070,10 +2220,13 @@
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>896145.578125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>890423.69389715383</v>
+      </c>
+      <c r="M50">
+        <v>5721.8842278461498</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>19.7</v>
       </c>
@@ -2103,10 +2256,13 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>889048.3359375</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>883356.8799374064</v>
+      </c>
+      <c r="M51">
+        <v>5691.4560000936399</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>20</v>
       </c>
@@ -2136,10 +2292,13 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>881556.7421875</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>875895.49552100024</v>
+      </c>
+      <c r="M52">
+        <v>5661.2466664997801</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>20.3</v>
       </c>
@@ -2169,10 +2328,13 @@
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>874106.015625</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>868474.76514840638</v>
+      </c>
+      <c r="M53">
+        <v>5631.2504765936201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>20.6</v>
       </c>
@@ -2202,10 +2364,13 @@
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>867060.5234375</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>861459.06175759574</v>
+      </c>
+      <c r="M54">
+        <v>5601.4616799042196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20.9</v>
       </c>
@@ -2235,10 +2400,13 @@
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>860312.3203125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>854740.44578653935</v>
+      </c>
+      <c r="M55">
+        <v>5571.8745259606103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>21.2</v>
       </c>
@@ -2268,10 +2436,13 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>852830.75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>847288.26673570811</v>
+      </c>
+      <c r="M56">
+        <v>5542.48326429185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>21.5</v>
       </c>
@@ -2301,10 +2472,13 @@
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>845461.1328125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>839947.85066807305</v>
+      </c>
+      <c r="M57">
+        <v>5513.2821444270003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>21.8</v>
       </c>
@@ -2334,10 +2508,13 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>838371.484375</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>832887.21895910485</v>
+      </c>
+      <c r="M58">
+        <v>5484.2654158951</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>22.1</v>
       </c>
@@ -2367,10 +2544,13 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>831419.7578125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>825964.33048427477</v>
+      </c>
+      <c r="M59">
+        <v>5455.4273282252097</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>22.4</v>
       </c>
@@ -2400,10 +2580,13 @@
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>823959.5625</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>818532.80036905361</v>
+      </c>
+      <c r="M60">
+        <v>5426.7621309463702</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>22.7</v>
       </c>
@@ -2433,10 +2616,13 @@
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>816326.1640625</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>810927.8999889124</v>
+      </c>
+      <c r="M61">
+        <v>5398.2640735876403</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>23</v>
       </c>
@@ -2466,10 +2652,13 @@
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>809840.859375</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>804470.93196932191</v>
+      </c>
+      <c r="M62">
+        <v>5369.9274056780596</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>23.3</v>
       </c>
@@ -2499,10 +2688,13 @@
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>802641.40625</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>797299.65987325332</v>
+      </c>
+      <c r="M63">
+        <v>5341.7463767466998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>23.6</v>
       </c>
@@ -2532,10 +2724,13 @@
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>795671.7109375</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>790357.99570117739</v>
+      </c>
+      <c r="M64">
+        <v>5313.7152363225896</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>23.9</v>
       </c>
@@ -2565,10 +2760,13 @@
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>788368.0546875</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <v>783082.22645356518</v>
+      </c>
+      <c r="M65">
+        <v>5285.8282339347898</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>24.2</v>
       </c>
@@ -2598,10 +2796,13 @@
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
-        <v>781318.8203125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>776060.74069338769</v>
+      </c>
+      <c r="M66">
+        <v>5258.07961911236</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>24.5</v>
       </c>
@@ -2630,11 +2831,14 @@
         <v>885399.375</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K130" si="1">AVERAGE(B67:I67)</f>
-        <v>774003.390625</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K67:K130" si="1">AVERAGE(B67:I67)-M67</f>
+        <v>768772.92698361562</v>
+      </c>
+      <c r="M67">
+        <v>5230.46364138434</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>24.8</v>
       </c>
@@ -2664,10 +2868,13 @@
       </c>
       <c r="K68">
         <f t="shared" si="1"/>
-        <v>766959.2265625</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+        <v>761756.25201222021</v>
+      </c>
+      <c r="M68">
+        <v>5202.9745502797796</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>25.1</v>
       </c>
@@ -2697,10 +2904,13 @@
       </c>
       <c r="K69">
         <f t="shared" si="1"/>
-        <v>760088.9453125</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>754913.33871717227</v>
+      </c>
+      <c r="M69">
+        <v>5175.6065953277302</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>25.4</v>
       </c>
@@ -2730,10 +2940,13 @@
       </c>
       <c r="K70">
         <f t="shared" si="1"/>
-        <v>753224.578125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+        <v>748076.22409894271</v>
+      </c>
+      <c r="M70">
+        <v>5148.3540260572499</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>25.7</v>
       </c>
@@ -2763,10 +2976,13 @@
       </c>
       <c r="K71">
         <f t="shared" si="1"/>
-        <v>746116.3046875</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>740995.09359550267</v>
+      </c>
+      <c r="M71">
+        <v>5121.2110919973902</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>26</v>
       </c>
@@ -2796,10 +3012,13 @@
       </c>
       <c r="K72">
         <f t="shared" si="1"/>
-        <v>739257.671875</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>734163.49983232282</v>
+      </c>
+      <c r="M72">
+        <v>5094.1720426771899</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>26.3</v>
       </c>
@@ -2829,10 +3048,13 @@
       </c>
       <c r="K73">
         <f t="shared" si="1"/>
-        <v>732145.1953125</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>727077.96418487432</v>
+      </c>
+      <c r="M73">
+        <v>5067.2311276257196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>26.6</v>
       </c>
@@ -2862,10 +3084,13 @@
       </c>
       <c r="K74">
         <f t="shared" si="1"/>
-        <v>725718.9453125</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>720678.56271612796</v>
+      </c>
+      <c r="M74">
+        <v>5040.3825963720101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>26.9</v>
       </c>
@@ -2895,10 +3120,13 @@
       </c>
       <c r="K75">
         <f t="shared" si="1"/>
-        <v>718768.6875</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>713755.06680155487</v>
+      </c>
+      <c r="M75">
+        <v>5013.6206984451201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>27.2</v>
       </c>
@@ -2928,10 +3156,13 @@
       </c>
       <c r="K76">
         <f t="shared" si="1"/>
-        <v>711333.4375</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>706346.49781662587</v>
+      </c>
+      <c r="M76">
+        <v>4986.9396833741002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>27.5</v>
       </c>
@@ -2961,10 +3192,13 @@
       </c>
       <c r="K77">
         <f t="shared" si="1"/>
-        <v>704581.765625</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+        <v>699621.43182431196</v>
+      </c>
+      <c r="M77">
+        <v>4960.3338006880003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>27.8</v>
       </c>
@@ -2994,10 +3228,13 @@
       </c>
       <c r="K78">
         <f t="shared" si="1"/>
-        <v>697924.328125</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>692990.53082508408</v>
+      </c>
+      <c r="M78">
+        <v>4933.7972999158801</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>28.1</v>
       </c>
@@ -3027,10 +3264,13 @@
       </c>
       <c r="K79">
         <f t="shared" si="1"/>
-        <v>690766.578125</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+        <v>685859.25369441323</v>
+      </c>
+      <c r="M79">
+        <v>4907.3244305867802</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>28.4</v>
       </c>
@@ -3060,10 +3300,13 @@
       </c>
       <c r="K80">
         <f t="shared" si="1"/>
-        <v>684235</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+        <v>679354.09055777022</v>
+      </c>
+      <c r="M80">
+        <v>4880.9094422297503</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>28.7</v>
       </c>
@@ -3093,10 +3336,13 @@
       </c>
       <c r="K81">
         <f t="shared" si="1"/>
-        <v>676997.7421875</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+        <v>672143.19560312619</v>
+      </c>
+      <c r="M81">
+        <v>4854.5465843738502</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>29</v>
       </c>
@@ -3126,10 +3372,13 @@
       </c>
       <c r="K82">
         <f t="shared" si="1"/>
-        <v>670323.8828125</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>665495.65270595183</v>
+      </c>
+      <c r="M82">
+        <v>4828.2301065481297</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>29.3</v>
       </c>
@@ -3159,10 +3408,13 @@
       </c>
       <c r="K83">
         <f t="shared" si="1"/>
-        <v>663663</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+        <v>658861.04574171838</v>
+      </c>
+      <c r="M83">
+        <v>4801.9542582816403</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>29.6</v>
       </c>
@@ -3192,10 +3444,13 @@
       </c>
       <c r="K84">
         <f t="shared" si="1"/>
-        <v>656976.546875</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>652200.83358589653</v>
+      </c>
+      <c r="M84">
+        <v>4775.7132891034198</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>29.9</v>
       </c>
@@ -3225,10 +3480,13 @@
       </c>
       <c r="K85">
         <f t="shared" si="1"/>
-        <v>649789.0859375</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>645039.58448895742</v>
+      </c>
+      <c r="M85">
+        <v>4749.5014485425299</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>30.2</v>
       </c>
@@ -3258,10 +3516,13 @@
       </c>
       <c r="K86">
         <f t="shared" si="1"/>
-        <v>643373.8125</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+        <v>638650.49951387197</v>
+      </c>
+      <c r="M86">
+        <v>4723.3129861280204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>30.5</v>
       </c>
@@ -3291,10 +3552,13 @@
       </c>
       <c r="K87">
         <f t="shared" si="1"/>
-        <v>636627.9296875</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+        <v>631930.78753611108</v>
+      </c>
+      <c r="M87">
+        <v>4697.14215138895</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>30.8</v>
       </c>
@@ -3324,10 +3588,13 @@
       </c>
       <c r="K88">
         <f t="shared" si="1"/>
-        <v>629755.765625</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+        <v>625084.78243114566</v>
+      </c>
+      <c r="M88">
+        <v>4670.9831938543603</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>31.1</v>
       </c>
@@ -3357,10 +3624,13 @@
       </c>
       <c r="K89">
         <f t="shared" si="1"/>
-        <v>623545.3515625</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+        <v>618900.52119944675</v>
+      </c>
+      <c r="M89">
+        <v>4644.8303630533001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>31.4</v>
       </c>
@@ -3390,10 +3660,13 @@
       </c>
       <c r="K90">
         <f t="shared" si="1"/>
-        <v>616336.2734375</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+        <v>611717.59552898514</v>
+      </c>
+      <c r="M90">
+        <v>4618.67790851482</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>31.7</v>
       </c>
@@ -3423,10 +3696,13 @@
       </c>
       <c r="K91">
         <f t="shared" si="1"/>
-        <v>610083.2734375</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+        <v>605490.75335773197</v>
+      </c>
+      <c r="M91">
+        <v>4592.52007976798</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>32</v>
       </c>
@@ -3456,10 +3732,13 @@
       </c>
       <c r="K92">
         <f t="shared" si="1"/>
-        <v>603525.09765625</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+        <v>598958.74652990815</v>
+      </c>
+      <c r="M92">
+        <v>4566.3511263418204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>32.299999999999997</v>
       </c>
@@ -3489,10 +3768,13 @@
       </c>
       <c r="K93">
         <f t="shared" si="1"/>
-        <v>597105.3828125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+        <v>592565.2175147346</v>
+      </c>
+      <c r="M93">
+        <v>4540.1652977654103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>32.6</v>
       </c>
@@ -3522,10 +3804,13 @@
       </c>
       <c r="K94">
         <f t="shared" si="1"/>
-        <v>590492.66015625</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+        <v>585978.70331268222</v>
+      </c>
+      <c r="M94">
+        <v>4513.9568435677802</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>32.9</v>
       </c>
@@ -3555,10 +3840,13 @@
       </c>
       <c r="K95">
         <f t="shared" si="1"/>
-        <v>583838.6953125</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+        <v>579350.97529922205</v>
+      </c>
+      <c r="M95">
+        <v>4487.7200132779899</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>33.200000000000003</v>
       </c>
@@ -3588,10 +3876,13 @@
       </c>
       <c r="K96">
         <f t="shared" si="1"/>
-        <v>577551.9609375</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+        <v>573090.51188107487</v>
+      </c>
+      <c r="M96">
+        <v>4461.44905642509</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>33.5</v>
       </c>
@@ -3621,10 +3912,13 @@
       </c>
       <c r="K97">
         <f t="shared" si="1"/>
-        <v>571073.41796875</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+        <v>566638.27974621183</v>
+      </c>
+      <c r="M97">
+        <v>4435.1382225381303</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>33.799999999999997</v>
       </c>
@@ -3654,10 +3948,13 @@
       </c>
       <c r="K98">
         <f t="shared" si="1"/>
-        <v>564738.4609375</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+        <v>560329.67917635385</v>
+      </c>
+      <c r="M98">
+        <v>4408.7817611461596</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>34.1</v>
       </c>
@@ -3687,10 +3984,13 @@
       </c>
       <c r="K99">
         <f t="shared" si="1"/>
-        <v>558202.99609375</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+        <v>553820.62217197171</v>
+      </c>
+      <c r="M99">
+        <v>4382.3739217782304</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>34.4</v>
       </c>
@@ -3720,10 +4020,13 @@
       </c>
       <c r="K100">
         <f t="shared" si="1"/>
-        <v>551938.18359375</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+        <v>547582.27463978657</v>
+      </c>
+      <c r="M100">
+        <v>4355.9089539633997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>34.700000000000003</v>
       </c>
@@ -3753,10 +4056,13 @@
       </c>
       <c r="K101">
         <f t="shared" si="1"/>
-        <v>545617.765625</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+        <v>541288.38451776933</v>
+      </c>
+      <c r="M101">
+        <v>4329.3811072307099</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>35</v>
       </c>
@@ -3786,10 +4092,13 @@
       </c>
       <c r="K102">
         <f t="shared" si="1"/>
-        <v>539282.265625</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+        <v>534979.48099389079</v>
+      </c>
+      <c r="M102">
+        <v>4302.7846311092198</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>35.299999999999997</v>
       </c>
@@ -3819,10 +4128,13 @@
       </c>
       <c r="K103">
         <f t="shared" si="1"/>
-        <v>532964.3671875</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+        <v>528688.25341237197</v>
+      </c>
+      <c r="M103">
+        <v>4276.1137751279803</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>35.6</v>
       </c>
@@ -3852,10 +4164,13 @@
       </c>
       <c r="K104">
         <f t="shared" si="1"/>
-        <v>526991.16015625</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+        <v>522741.79736743396</v>
+      </c>
+      <c r="M104">
+        <v>4249.3627888160299</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>35.9</v>
       </c>
@@ -3885,10 +4200,13 @@
       </c>
       <c r="K105">
         <f t="shared" si="1"/>
-        <v>520561.94921875</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+        <v>516339.42329704756</v>
+      </c>
+      <c r="M105">
+        <v>4222.5259217024304</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>36.200000000000003</v>
       </c>
@@ -3918,10 +4236,13 @@
       </c>
       <c r="K106">
         <f t="shared" si="1"/>
-        <v>514676.23828125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+        <v>510480.64085793379</v>
+      </c>
+      <c r="M106">
+        <v>4195.5974233162297</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>36.5</v>
       </c>
@@ -3951,10 +4272,13 @@
       </c>
       <c r="K107">
         <f t="shared" si="1"/>
-        <v>508625.421875</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+        <v>504456.8503318135</v>
+      </c>
+      <c r="M107">
+        <v>4168.5715431864801</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>36.799999999999997</v>
       </c>
@@ -3984,10 +4308,13 @@
       </c>
       <c r="K108">
         <f t="shared" si="1"/>
-        <v>502737.7265625</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+        <v>498596.28403165779</v>
+      </c>
+      <c r="M108">
+        <v>4141.4425308422296</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>37.1</v>
       </c>
@@ -4017,10 +4344,13 @@
       </c>
       <c r="K109">
         <f t="shared" si="1"/>
-        <v>496852.3125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+        <v>492738.10786418745</v>
+      </c>
+      <c r="M109">
+        <v>4114.2046358125399</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>37.4</v>
       </c>
@@ -4050,10 +4380,13 @@
       </c>
       <c r="K110">
         <f t="shared" si="1"/>
-        <v>490669.84375</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+        <v>486582.99164237356</v>
+      </c>
+      <c r="M110">
+        <v>4086.8521076264501</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>37.700000000000003</v>
       </c>
@@ -4083,10 +4416,13 @@
       </c>
       <c r="K111">
         <f t="shared" si="1"/>
-        <v>484843.01953125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+        <v>480783.64033543697</v>
+      </c>
+      <c r="M111">
+        <v>4059.37919581301</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>38</v>
       </c>
@@ -4116,10 +4452,13 @@
       </c>
       <c r="K112">
         <f t="shared" si="1"/>
-        <v>479109.828125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+        <v>475078.04797509871</v>
+      </c>
+      <c r="M112">
+        <v>4031.7801499012699</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>38.299999999999997</v>
       </c>
@@ -4149,10 +4488,13 @@
       </c>
       <c r="K113">
         <f t="shared" si="1"/>
-        <v>473153.64453125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+        <v>469149.5953118297</v>
+      </c>
+      <c r="M113">
+        <v>4004.0492194202998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>38.6</v>
       </c>
@@ -4182,10 +4524,13 @@
       </c>
       <c r="K114">
         <f t="shared" si="1"/>
-        <v>467412.05078125</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+        <v>463435.87012735085</v>
+      </c>
+      <c r="M114">
+        <v>3976.18065389913</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>38.9</v>
       </c>
@@ -4215,10 +4560,13 @@
       </c>
       <c r="K115">
         <f t="shared" si="1"/>
-        <v>461474.87109375</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+        <v>457526.70239088318</v>
+      </c>
+      <c r="M115">
+        <v>3948.1687028668098</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>39.200000000000003</v>
       </c>
@@ -4248,10 +4596,13 @@
       </c>
       <c r="K116">
         <f t="shared" si="1"/>
-        <v>455756.265625</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+        <v>451836.2580091476</v>
+      </c>
+      <c r="M116">
+        <v>3920.0076158524098</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>39.5</v>
       </c>
@@ -4281,10 +4632,13 @@
       </c>
       <c r="K117">
         <f t="shared" si="1"/>
-        <v>449984.328125</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+        <v>446092.63648261502</v>
+      </c>
+      <c r="M117">
+        <v>3891.6916423849698</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>39.799999999999997</v>
       </c>
@@ -4314,10 +4668,13 @@
       </c>
       <c r="K118">
         <f t="shared" si="1"/>
-        <v>444444.94140625</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+        <v>440581.72637425648</v>
+      </c>
+      <c r="M118">
+        <v>3863.2150319935299</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>40.1</v>
       </c>
@@ -4347,10 +4704,13 @@
       </c>
       <c r="K119">
         <f t="shared" si="1"/>
-        <v>438542.765625</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+        <v>434708.19359079283</v>
+      </c>
+      <c r="M119">
+        <v>3834.57203420716</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>40.4</v>
       </c>
@@ -4380,10 +4740,13 @@
       </c>
       <c r="K120">
         <f t="shared" si="1"/>
-        <v>433100.76953125</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+        <v>429295.01263269508</v>
+      </c>
+      <c r="M120">
+        <v>3805.7568985549101</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>40.700000000000003</v>
       </c>
@@ -4413,10 +4776,13 @@
       </c>
       <c r="K121">
         <f t="shared" si="1"/>
-        <v>427754.65234375</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+        <v>423977.88846918417</v>
+      </c>
+      <c r="M121">
+        <v>3776.7638745658101</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>41</v>
       </c>
@@ -4446,10 +4812,13 @@
       </c>
       <c r="K122">
         <f t="shared" si="1"/>
-        <v>422393.1875</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+        <v>418645.60028823104</v>
+      </c>
+      <c r="M122">
+        <v>3747.58721176893</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>41.3</v>
       </c>
@@ -4479,10 +4848,13 @@
       </c>
       <c r="K123">
         <f t="shared" si="1"/>
-        <v>416704.46484375</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+        <v>412986.24368405668</v>
+      </c>
+      <c r="M123">
+        <v>3718.2211596933198</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>41.6</v>
       </c>
@@ -4512,10 +4884,13 @@
       </c>
       <c r="K124">
         <f t="shared" si="1"/>
-        <v>411642.08203125</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+        <v>407953.42206338199</v>
+      </c>
+      <c r="M124">
+        <v>3688.65996786802</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>41.9</v>
       </c>
@@ -4545,10 +4920,13 @@
       </c>
       <c r="K125">
         <f t="shared" si="1"/>
-        <v>406121.28515625</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+        <v>402462.38727042789</v>
+      </c>
+      <c r="M125">
+        <v>3658.8978858220898</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>42.2</v>
       </c>
@@ -4578,10 +4956,13 @@
       </c>
       <c r="K126">
         <f t="shared" si="1"/>
-        <v>401072.8515625</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+        <v>397443.9223994154</v>
+      </c>
+      <c r="M126">
+        <v>3628.9291630845801</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>42.5</v>
       </c>
@@ -4611,10 +4992,13 @@
       </c>
       <c r="K127">
         <f t="shared" si="1"/>
-        <v>395949.0859375</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+        <v>392350.33731625264</v>
+      </c>
+      <c r="M127">
+        <v>3598.74862124736</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>42.8</v>
       </c>
@@ -4644,10 +5028,13 @@
       </c>
       <c r="K128">
         <f t="shared" si="1"/>
-        <v>390642.484375</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+        <v>387074.12509788648</v>
+      </c>
+      <c r="M128">
+        <v>3568.35927711351</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>43.1</v>
       </c>
@@ -4677,10 +5064,13 @@
       </c>
       <c r="K129">
         <f t="shared" si="1"/>
-        <v>385475.70703125</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+        <v>381937.93675647123</v>
+      </c>
+      <c r="M129">
+        <v>3537.7702747787598</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>43.4</v>
       </c>
@@ -4710,10 +5100,13 @@
       </c>
       <c r="K130">
         <f t="shared" si="1"/>
-        <v>380371.234375</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+        <v>376864.24346917658</v>
+      </c>
+      <c r="M130">
+        <v>3506.9909058234298</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>43.7</v>
       </c>
@@ -4742,11 +5135,14 @@
         <v>418717.375</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K194" si="2">AVERAGE(B131:I131)</f>
-        <v>375442.13671875</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K131:K194" si="2">AVERAGE(B131:I131)-M131</f>
+        <v>371966.10625692218</v>
+      </c>
+      <c r="M131">
+        <v>3476.0304618278001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>44</v>
       </c>
@@ -4776,10 +5172,13 @@
       </c>
       <c r="K132">
         <f t="shared" si="2"/>
-        <v>370438.71484375</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+        <v>366993.8166093778</v>
+      </c>
+      <c r="M132">
+        <v>3444.89823437219</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>44.3</v>
       </c>
@@ -4809,10 +5208,13 @@
       </c>
       <c r="K133">
         <f t="shared" si="2"/>
-        <v>365904.70703125</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+        <v>362491.10351621307</v>
+      </c>
+      <c r="M133">
+        <v>3413.6035150368998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>44.6</v>
       </c>
@@ -4842,10 +5244,13 @@
       </c>
       <c r="K134">
         <f t="shared" si="2"/>
-        <v>360599.65234375</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+        <v>357217.49674834777</v>
+      </c>
+      <c r="M134">
+        <v>3382.1555954022201</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>44.9</v>
       </c>
@@ -4875,10 +5280,13 @@
       </c>
       <c r="K135">
         <f t="shared" si="2"/>
-        <v>356217.69921875</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+        <v>352867.13545170153</v>
+      </c>
+      <c r="M135">
+        <v>3350.5637670484698</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>45.2</v>
       </c>
@@ -4908,10 +5316,13 @@
       </c>
       <c r="K136">
         <f t="shared" si="2"/>
-        <v>351674.34375</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+        <v>348355.50642844406</v>
+      </c>
+      <c r="M136">
+        <v>3318.83732155594</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>45.5</v>
       </c>
@@ -4941,10 +5352,13 @@
       </c>
       <c r="K137">
         <f t="shared" si="2"/>
-        <v>346498.2421875</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+        <v>343211.25663699507</v>
+      </c>
+      <c r="M137">
+        <v>3286.98555050493</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>45.8</v>
       </c>
@@ -4974,10 +5388,13 @@
       </c>
       <c r="K138">
         <f t="shared" si="2"/>
-        <v>341855.6796875</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+        <v>338600.66194202425</v>
+      </c>
+      <c r="M138">
+        <v>3255.01774547575</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>46.1</v>
       </c>
@@ -5007,10 +5424,13 @@
       </c>
       <c r="K139">
         <f t="shared" si="2"/>
-        <v>337286.6171875</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+        <v>334063.67398945132</v>
+      </c>
+      <c r="M139">
+        <v>3222.9431980487002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>46.4</v>
       </c>
@@ -5040,10 +5460,13 @@
       </c>
       <c r="K140">
         <f t="shared" si="2"/>
-        <v>332883.265625</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+        <v>329692.49442519591</v>
+      </c>
+      <c r="M140">
+        <v>3190.77119980408</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>46.7</v>
       </c>
@@ -5073,10 +5496,13 @@
       </c>
       <c r="K141">
         <f t="shared" si="2"/>
-        <v>328598.4453125</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+        <v>325439.93427017779</v>
+      </c>
+      <c r="M141">
+        <v>3158.5110423222</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>47</v>
       </c>
@@ -5106,10 +5532,13 @@
       </c>
       <c r="K142">
         <f t="shared" si="2"/>
-        <v>324254.01953125</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+        <v>321127.84751406667</v>
+      </c>
+      <c r="M142">
+        <v>3126.1720171833499</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>47.3</v>
       </c>
@@ -5139,10 +5568,13 @@
       </c>
       <c r="K143">
         <f t="shared" si="2"/>
-        <v>319735.9375</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+        <v>316642.17408403219</v>
+      </c>
+      <c r="M143">
+        <v>3093.76341596783</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>47.6</v>
       </c>
@@ -5172,10 +5604,13 @@
       </c>
       <c r="K144">
         <f t="shared" si="2"/>
-        <v>315369.484375</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+        <v>312308.18984474405</v>
+      </c>
+      <c r="M144">
+        <v>3061.2945302559601</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>47.9</v>
       </c>
@@ -5205,10 +5640,13 @@
       </c>
       <c r="K145">
         <f t="shared" si="2"/>
-        <v>311065.20703125</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+        <v>308036.43237962195</v>
+      </c>
+      <c r="M145">
+        <v>3028.7746516280299</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>48.2</v>
       </c>
@@ -5238,10 +5676,13 @@
       </c>
       <c r="K146">
         <f t="shared" si="2"/>
-        <v>306784.005859375</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+        <v>303787.79278771067</v>
+      </c>
+      <c r="M146">
+        <v>2996.2130716643501</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>48.5</v>
       </c>
@@ -5271,10 +5712,13 @@
       </c>
       <c r="K147">
         <f t="shared" si="2"/>
-        <v>302823.330078125</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+        <v>299859.71099617978</v>
+      </c>
+      <c r="M147">
+        <v>2963.6190819452099</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>48.8</v>
       </c>
@@ -5304,10 +5748,13 @@
       </c>
       <c r="K148">
         <f t="shared" si="2"/>
-        <v>298750.818359375</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+        <v>295819.81638532405</v>
+      </c>
+      <c r="M148">
+        <v>2931.0019740509201</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>49.1</v>
       </c>
@@ -5337,10 +5784,13 @@
       </c>
       <c r="K149">
         <f t="shared" si="2"/>
-        <v>294481.072265625</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+        <v>291582.70122606325</v>
+      </c>
+      <c r="M149">
+        <v>2898.37103956177</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>49.4</v>
       </c>
@@ -5370,10 +5820,13 @@
       </c>
       <c r="K150">
         <f t="shared" si="2"/>
-        <v>290696.24609375</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+        <v>287830.51052369189</v>
+      </c>
+      <c r="M150">
+        <v>2865.7355700580902</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>49.7</v>
       </c>
@@ -5403,10 +5856,13 @@
       </c>
       <c r="K151">
         <f t="shared" si="2"/>
-        <v>286536.041015625</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+        <v>283702.93615850486</v>
+      </c>
+      <c r="M151">
+        <v>2833.10485712015</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>50</v>
       </c>
@@ -5436,10 +5892,13 @@
       </c>
       <c r="K152">
         <f t="shared" si="2"/>
-        <v>282698.86328125</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+        <v>279898.37508892175</v>
+      </c>
+      <c r="M152">
+        <v>2800.4881923282801</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>50.3</v>
       </c>
@@ -5469,10 +5928,13 @@
       </c>
       <c r="K153">
         <f t="shared" si="2"/>
-        <v>278885.2734375</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+        <v>276117.37857023726</v>
+      </c>
+      <c r="M153">
+        <v>2767.8948672627598</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>50.6</v>
       </c>
@@ -5502,10 +5964,13 @@
       </c>
       <c r="K154">
         <f t="shared" si="2"/>
-        <v>274934.71484375</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+        <v>272199.38067024609</v>
+      </c>
+      <c r="M154">
+        <v>2735.3341735038998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>50.9</v>
       </c>
@@ -5535,10 +6000,13 @@
       </c>
       <c r="K155">
         <f t="shared" si="2"/>
-        <v>271192.923828125</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+        <v>268490.108425493</v>
+      </c>
+      <c r="M155">
+        <v>2702.8154026320099</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>51.2</v>
       </c>
@@ -5568,10 +6036,13 @@
       </c>
       <c r="K156">
         <f t="shared" si="2"/>
-        <v>267544.826171875</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+        <v>264874.47832564759</v>
+      </c>
+      <c r="M156">
+        <v>2670.3478462273902</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>51.5</v>
       </c>
@@ -5601,10 +6072,13 @@
       </c>
       <c r="K157">
         <f t="shared" si="2"/>
-        <v>263945.798828125</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+        <v>261307.85803225468</v>
+      </c>
+      <c r="M157">
+        <v>2637.94079587033</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>51.8</v>
       </c>
@@ -5634,10 +6108,13 @@
       </c>
       <c r="K158">
         <f t="shared" si="2"/>
-        <v>259980.0546875</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+        <v>257374.45114435887</v>
+      </c>
+      <c r="M158">
+        <v>2605.6035431411401</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>52.1</v>
       </c>
@@ -5667,10 +6144,13 @@
       </c>
       <c r="K159">
         <f t="shared" si="2"/>
-        <v>256627.279296875</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+        <v>254053.93391725488</v>
+      </c>
+      <c r="M159">
+        <v>2573.3453796201202</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>52.4</v>
       </c>
@@ -5700,10 +6180,13 @@
       </c>
       <c r="K160">
         <f t="shared" si="2"/>
-        <v>253165.083984375</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+        <v>250623.90838748743</v>
+      </c>
+      <c r="M160">
+        <v>2541.17559688758</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>52.7</v>
       </c>
@@ -5733,10 +6216,13 @@
       </c>
       <c r="K161">
         <f t="shared" si="2"/>
-        <v>249631.08203125</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+        <v>247121.97854472618</v>
+      </c>
+      <c r="M161">
+        <v>2509.1034865238098</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>53</v>
       </c>
@@ -5766,10 +6252,13 @@
       </c>
       <c r="K162">
         <f t="shared" si="2"/>
-        <v>246061.3125</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+        <v>243584.17415989088</v>
+      </c>
+      <c r="M162">
+        <v>2477.1383401091198</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>53.3</v>
       </c>
@@ -5799,10 +6288,13 @@
       </c>
       <c r="K163">
         <f t="shared" si="2"/>
-        <v>242874.685546875</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240429.39609765119</v>
+      </c>
+      <c r="M163">
+        <v>2445.2894492238102</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>53.6</v>
       </c>
@@ -5832,10 +6324,13 @@
       </c>
       <c r="K164">
         <f t="shared" si="2"/>
-        <v>239467.73046875</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+        <v>237054.16436330182</v>
+      </c>
+      <c r="M164">
+        <v>2413.5661054481898</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>53.9</v>
       </c>
@@ -5865,10 +6360,13 @@
       </c>
       <c r="K165">
         <f t="shared" si="2"/>
-        <v>236335.61328125</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+        <v>233953.63568088744</v>
+      </c>
+      <c r="M165">
+        <v>2381.9776003625502</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>54.2</v>
       </c>
@@ -5898,10 +6396,13 @@
       </c>
       <c r="K166">
         <f t="shared" si="2"/>
-        <v>233139.33203125</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+        <v>230788.7988057028</v>
+      </c>
+      <c r="M166">
+        <v>2350.5332255471899</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>54.5</v>
       </c>
@@ -5931,10 +6432,13 @@
       </c>
       <c r="K167">
         <f t="shared" si="2"/>
-        <v>229894.9765625</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+        <v>227575.73428991757</v>
+      </c>
+      <c r="M167">
+        <v>2319.2422725824299</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>54.8</v>
       </c>
@@ -5964,10 +6468,13 @@
       </c>
       <c r="K168">
         <f t="shared" si="2"/>
-        <v>226816.224609375</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+        <v>224528.11057632646</v>
+      </c>
+      <c r="M168">
+        <v>2288.11403304855</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>55.1</v>
       </c>
@@ -5997,10 +6504,13 @@
       </c>
       <c r="K169">
         <f t="shared" si="2"/>
-        <v>222980.701171875</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+        <v>220723.54337334912</v>
+      </c>
+      <c r="M169">
+        <v>2257.15779852587</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>55.4</v>
       </c>
@@ -6030,10 +6540,13 @@
       </c>
       <c r="K170">
         <f t="shared" si="2"/>
-        <v>219823.900390625</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+        <v>217597.51753003031</v>
+      </c>
+      <c r="M170">
+        <v>2226.3828605946901</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>55.7</v>
       </c>
@@ -6063,10 +6576,13 @@
       </c>
       <c r="K171">
         <f t="shared" si="2"/>
-        <v>216787.35546875</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+        <v>214591.5569579147</v>
+      </c>
+      <c r="M171">
+        <v>2195.7985108353</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>56</v>
       </c>
@@ -6096,10 +6612,13 @@
       </c>
       <c r="K172">
         <f t="shared" si="2"/>
-        <v>213622.775390625</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+        <v>211457.36134979699</v>
+      </c>
+      <c r="M172">
+        <v>2165.41404082801</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>56.3</v>
       </c>
@@ -6129,10 +6648,13 @@
       </c>
       <c r="K173">
         <f t="shared" si="2"/>
-        <v>210711</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+        <v>208575.76125784687</v>
+      </c>
+      <c r="M173">
+        <v>2135.2387421531298</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>56.6</v>
       </c>
@@ -6162,10 +6684,13 @@
       </c>
       <c r="K174">
         <f t="shared" si="2"/>
-        <v>207658.583984375</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+        <v>205553.30207798406</v>
+      </c>
+      <c r="M174">
+        <v>2105.2819063909401</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>56.9</v>
       </c>
@@ -6195,10 +6720,13 @@
       </c>
       <c r="K175">
         <f t="shared" si="2"/>
-        <v>204824.974609375</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+        <v>202749.42178425324</v>
+      </c>
+      <c r="M175">
+        <v>2075.5528251217702</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>57.2</v>
       </c>
@@ -6228,10 +6756,13 @@
       </c>
       <c r="K176">
         <f t="shared" si="2"/>
-        <v>201929.76171875</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+        <v>199883.70092882411</v>
+      </c>
+      <c r="M176">
+        <v>2046.0607899259001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>57.5</v>
       </c>
@@ -6261,10 +6792,13 @@
       </c>
       <c r="K177">
         <f t="shared" si="2"/>
-        <v>199108.45703125</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+        <v>197091.64193886635</v>
+      </c>
+      <c r="M177">
+        <v>2016.8150923836399</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>57.8</v>
       </c>
@@ -6294,10 +6828,13 @@
       </c>
       <c r="K178">
         <f t="shared" si="2"/>
-        <v>196254.03515625</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+        <v>194266.21013217469</v>
+      </c>
+      <c r="M178">
+        <v>1987.8250240753</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>58.1</v>
       </c>
@@ -6327,10 +6864,13 @@
       </c>
       <c r="K179">
         <f t="shared" si="2"/>
-        <v>193698.5390625</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+        <v>191739.43918591883</v>
+      </c>
+      <c r="M179">
+        <v>1959.0998765811701</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>58.4</v>
       </c>
@@ -6360,10 +6900,13 @@
       </c>
       <c r="K180">
         <f t="shared" si="2"/>
-        <v>190860.30859375</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+        <v>188929.65965226846</v>
+      </c>
+      <c r="M180">
+        <v>1930.6489414815501</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>58.7</v>
       </c>
@@ -6393,10 +6936,13 @@
       </c>
       <c r="K181">
         <f t="shared" si="2"/>
-        <v>188034.6015625</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+        <v>186132.12005214323</v>
+      </c>
+      <c r="M181">
+        <v>1902.4815103567601</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>59</v>
       </c>
@@ -6426,10 +6972,13 @@
       </c>
       <c r="K182">
         <f t="shared" si="2"/>
-        <v>185292.478515625</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+        <v>183417.8716408379</v>
+      </c>
+      <c r="M182">
+        <v>1874.60687478709</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>59.3</v>
       </c>
@@ -6459,10 +7008,13 @@
       </c>
       <c r="K183">
         <f t="shared" si="2"/>
-        <v>182953.74609375</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+        <v>181106.71176739715</v>
+      </c>
+      <c r="M183">
+        <v>1847.03432635284</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>59.6</v>
       </c>
@@ -6492,10 +7044,13 @@
       </c>
       <c r="K184">
         <f t="shared" si="2"/>
-        <v>180183.033203125</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+        <v>178363.2600464907</v>
+      </c>
+      <c r="M184">
+        <v>1819.77315663431</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>59.9</v>
       </c>
@@ -6525,10 +7080,13 @@
       </c>
       <c r="K185">
         <f t="shared" si="2"/>
-        <v>177935.376953125</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+        <v>176142.54429591319</v>
+      </c>
+      <c r="M185">
+        <v>1792.8326572118101</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>60.2</v>
       </c>
@@ -6558,10 +7116,13 @@
       </c>
       <c r="K186">
         <f t="shared" si="2"/>
-        <v>175306.525390625</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+        <v>173540.30327095935</v>
+      </c>
+      <c r="M186">
+        <v>1766.2221196656401</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>60.5</v>
       </c>
@@ -6591,10 +7152,13 @@
       </c>
       <c r="K187">
         <f t="shared" si="2"/>
-        <v>173135.36328125</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+        <v>171395.41244567389</v>
+      </c>
+      <c r="M187">
+        <v>1739.95083557611</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>60.8</v>
       </c>
@@ -6624,10 +7188,13 @@
       </c>
       <c r="K188">
         <f t="shared" si="2"/>
-        <v>170721.92578125</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+        <v>169007.89768472649</v>
+      </c>
+      <c r="M188">
+        <v>1714.0280965235099</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>61.1</v>
       </c>
@@ -6657,10 +7224,13 @@
       </c>
       <c r="K189">
         <f t="shared" si="2"/>
-        <v>168358.66796875</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+        <v>166670.20477466186</v>
+      </c>
+      <c r="M189">
+        <v>1688.46319408814</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>61.4</v>
       </c>
@@ -6690,10 +7260,13 @@
       </c>
       <c r="K190">
         <f t="shared" si="2"/>
-        <v>166097.671875</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+        <v>164434.4064551497</v>
+      </c>
+      <c r="M190">
+        <v>1663.2654198503101</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>61.7</v>
       </c>
@@ -6723,10 +7296,13 @@
       </c>
       <c r="K191">
         <f t="shared" si="2"/>
-        <v>163736.876953125</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+        <v>162098.43288773467</v>
+      </c>
+      <c r="M191">
+        <v>1638.44406539032</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>62</v>
       </c>
@@ -6756,10 +7332,13 @@
       </c>
       <c r="K192">
         <f t="shared" si="2"/>
-        <v>161599.59765625</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+        <v>159985.58923396151</v>
+      </c>
+      <c r="M192">
+        <v>1614.00842228848</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>62.3</v>
       </c>
@@ -6789,10 +7368,13 @@
       </c>
       <c r="K193">
         <f t="shared" si="2"/>
-        <v>159497.671875</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+        <v>157907.70409287492</v>
+      </c>
+      <c r="M193">
+        <v>1589.96778212507</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>62.6</v>
       </c>
@@ -6822,10 +7404,13 @@
       </c>
       <c r="K194">
         <f t="shared" si="2"/>
-        <v>157344.5234375</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+        <v>155778.19200101958</v>
+      </c>
+      <c r="M194">
+        <v>1566.3314364804201</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>62.9</v>
       </c>
@@ -6854,11 +7439,14 @@
         <v>171369.84375</v>
       </c>
       <c r="K195">
-        <f t="shared" ref="K195:K258" si="3">AVERAGE(B195:I195)</f>
-        <v>155273.5869140625</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K195:K258" si="3">AVERAGE(B195:I195)-M195</f>
+        <v>153730.47823712768</v>
+      </c>
+      <c r="M195">
+        <v>1543.1086769348101</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>63.2</v>
       </c>
@@ -6888,10 +7476,13 @@
       </c>
       <c r="K196">
         <f t="shared" si="3"/>
-        <v>153209.939453125</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+        <v>151689.63065805644</v>
+      </c>
+      <c r="M196">
+        <v>1520.3087950685599</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>63.5</v>
       </c>
@@ -6921,10 +7512,13 @@
       </c>
       <c r="K197">
         <f t="shared" si="3"/>
-        <v>151223.197265625</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+        <v>149725.25618316303</v>
+      </c>
+      <c r="M197">
+        <v>1497.9410824619599</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>63.8</v>
       </c>
@@ -6954,10 +7548,13 @@
       </c>
       <c r="K198">
         <f t="shared" si="3"/>
-        <v>149056.1591796875</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+        <v>147580.14434899218</v>
+      </c>
+      <c r="M198">
+        <v>1476.0148306953099</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>64.099999999999994</v>
       </c>
@@ -6987,10 +7584,13 @@
       </c>
       <c r="K199">
         <f t="shared" si="3"/>
-        <v>147236.3603515625</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145781.82102021357</v>
+      </c>
+      <c r="M199">
+        <v>1454.5393313489201</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>64.400000000000006</v>
       </c>
@@ -7020,10 +7620,13 @@
       </c>
       <c r="K200">
         <f t="shared" si="3"/>
-        <v>145372.1591796875</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+        <v>143938.63530368442</v>
+      </c>
+      <c r="M200">
+        <v>1433.52387600309</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>64.7</v>
       </c>
@@ -7053,10 +7656,13 @@
       </c>
       <c r="K201">
         <f t="shared" si="3"/>
-        <v>143480.740234375</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+        <v>142067.76247813689</v>
+      </c>
+      <c r="M201">
+        <v>1412.97775623812</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>65</v>
       </c>
@@ -7086,10 +7692,13 @@
       </c>
       <c r="K202">
         <f t="shared" si="3"/>
-        <v>141641.2392578125</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+        <v>140248.32899417818</v>
+      </c>
+      <c r="M202">
+        <v>1392.91026363432</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>65.3</v>
       </c>
@@ -7119,10 +7728,13 @@
       </c>
       <c r="K203">
         <f t="shared" si="3"/>
-        <v>139522.6611328125</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+        <v>138149.33044304053</v>
+      </c>
+      <c r="M203">
+        <v>1373.3306897719799</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>65.599999999999994</v>
       </c>
@@ -7152,10 +7764,13 @@
       </c>
       <c r="K204">
         <f t="shared" si="3"/>
-        <v>138014.0556640625</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+        <v>136659.80733783109</v>
+      </c>
+      <c r="M204">
+        <v>1354.2483262314099</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>65.900000000000006</v>
       </c>
@@ -7185,10 +7800,13 @@
       </c>
       <c r="K205">
         <f t="shared" si="3"/>
-        <v>136149.193359375</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+        <v>134813.52089478209</v>
+      </c>
+      <c r="M205">
+        <v>1335.67246459291</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>66.2</v>
       </c>
@@ -7218,10 +7836,13 @@
       </c>
       <c r="K206">
         <f t="shared" si="3"/>
-        <v>134153.537109375</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+        <v>132835.92471293823</v>
+      </c>
+      <c r="M206">
+        <v>1317.61239643678</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>66.5</v>
       </c>
@@ -7251,10 +7872,13 @@
       </c>
       <c r="K207">
         <f t="shared" si="3"/>
-        <v>132549.0693359375</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+        <v>131248.99192259417</v>
+      </c>
+      <c r="M207">
+        <v>1300.0774133433299</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>66.8</v>
       </c>
@@ -7284,10 +7908,13 @@
       </c>
       <c r="K208">
         <f t="shared" si="3"/>
-        <v>130979.9384765625</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+        <v>129696.86166966966</v>
+      </c>
+      <c r="M208">
+        <v>1283.0768068928501</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>67.099999999999994</v>
       </c>
@@ -7317,10 +7944,13 @@
       </c>
       <c r="K209">
         <f t="shared" si="3"/>
-        <v>129379.921875</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+        <v>128113.30200633434</v>
+      </c>
+      <c r="M209">
+        <v>1266.6198686656501</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>67.400000000000006</v>
       </c>
@@ -7350,10 +7980,13 @@
       </c>
       <c r="K210">
         <f t="shared" si="3"/>
-        <v>127404.7470703125</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+        <v>126154.03118007047</v>
+      </c>
+      <c r="M210">
+        <v>1250.7158902420299</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>67.7</v>
       </c>
@@ -7383,10 +8016,13 @@
       </c>
       <c r="K211">
         <f t="shared" si="3"/>
-        <v>125861.890625</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+        <v>124626.5164617977</v>
+      </c>
+      <c r="M211">
+        <v>1235.3741632023</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>68</v>
       </c>
@@ -7416,10 +8052,13 @@
       </c>
       <c r="K212">
         <f t="shared" si="3"/>
-        <v>124292.484375</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+        <v>123071.88039587325</v>
+      </c>
+      <c r="M212">
+        <v>1220.6039791267499</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>68.3</v>
       </c>
@@ -7449,10 +8088,13 @@
       </c>
       <c r="K213">
         <f t="shared" si="3"/>
-        <v>122653.576171875</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+        <v>121447.16356253889</v>
+      </c>
+      <c r="M213">
+        <v>1206.4126093361101</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>68.599999999999994</v>
       </c>
@@ -7482,10 +8124,13 @@
       </c>
       <c r="K214">
         <f t="shared" si="3"/>
-        <v>121241.728515625</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+        <v>120048.93284552178</v>
+      </c>
+      <c r="M214">
+        <v>1192.7956701032199</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>68.900000000000006</v>
       </c>
@@ -7515,10 +8160,13 @@
       </c>
       <c r="K215">
         <f t="shared" si="3"/>
-        <v>119626.919921875</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+        <v>118447.17531478152</v>
+      </c>
+      <c r="M215">
+        <v>1179.74460709348</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>69.2</v>
       </c>
@@ -7548,10 +8196,13 @@
       </c>
       <c r="K216">
         <f t="shared" si="3"/>
-        <v>118124.474609375</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+        <v>116957.22374868013</v>
+      </c>
+      <c r="M216">
+        <v>1167.25086069487</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>69.5</v>
       </c>
@@ -7581,10 +8232,13 @@
       </c>
       <c r="K217">
         <f t="shared" si="3"/>
-        <v>116641.021484375</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+        <v>115485.71561307961</v>
+      </c>
+      <c r="M217">
+        <v>1155.3058712954</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>69.8</v>
       </c>
@@ -7614,10 +8268,13 @@
       </c>
       <c r="K218">
         <f t="shared" si="3"/>
-        <v>115214.423828125</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+        <v>114070.52274884196</v>
+      </c>
+      <c r="M218">
+        <v>1143.90107928304</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>70.099999999999994</v>
       </c>
@@ -7647,10 +8304,13 @@
       </c>
       <c r="K219">
         <f t="shared" si="3"/>
-        <v>113545.5849609375</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+        <v>112412.55703589169</v>
+      </c>
+      <c r="M219">
+        <v>1133.02792504581</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>70.400000000000006</v>
       </c>
@@ -7680,10 +8340,13 @@
       </c>
       <c r="K220">
         <f t="shared" si="3"/>
-        <v>112352.7509765625</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+        <v>111230.07312759082</v>
+      </c>
+      <c r="M220">
+        <v>1122.6778489716801</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>70.7</v>
       </c>
@@ -7713,10 +8376,13 @@
       </c>
       <c r="K221">
         <f t="shared" si="3"/>
-        <v>111135.291015625</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+        <v>110022.44872417636</v>
+      </c>
+      <c r="M221">
+        <v>1112.84229144865</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>71</v>
       </c>
@@ -7746,10 +8412,13 @@
       </c>
       <c r="K222">
         <f t="shared" si="3"/>
-        <v>109584.755859375</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+        <v>108481.24316651028</v>
+      </c>
+      <c r="M222">
+        <v>1103.5126928647201</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>71.3</v>
       </c>
@@ -7779,10 +8448,13 @@
       </c>
       <c r="K223">
         <f t="shared" si="3"/>
-        <v>108425.1962890625</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+        <v>107330.51579545462</v>
+      </c>
+      <c r="M223">
+        <v>1094.68049360788</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>71.599999999999994</v>
       </c>
@@ -7812,10 +8484,13 @@
       </c>
       <c r="K224">
         <f t="shared" si="3"/>
-        <v>106814.4228515625</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+        <v>105728.08571749639</v>
+      </c>
+      <c r="M224">
+        <v>1086.3371340661099</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>71.900000000000006</v>
       </c>
@@ -7845,10 +8520,13 @@
       </c>
       <c r="K225">
         <f t="shared" si="3"/>
-        <v>105536.4619140625</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+        <v>104457.98785943507</v>
+      </c>
+      <c r="M225">
+        <v>1078.47405462743</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>72.2</v>
       </c>
@@ -7878,10 +8556,13 @@
       </c>
       <c r="K226">
         <f t="shared" si="3"/>
-        <v>104511.341796875</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+        <v>103440.2591011952</v>
+      </c>
+      <c r="M226">
+        <v>1071.0826956798001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>72.5</v>
       </c>
@@ -7911,10 +8592,13 @@
       </c>
       <c r="K227">
         <f t="shared" si="3"/>
-        <v>103172.6748046875</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+        <v>102108.52030707627</v>
+      </c>
+      <c r="M227">
+        <v>1064.15449761124</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>72.8</v>
       </c>
@@ -7944,10 +8628,13 @@
       </c>
       <c r="K228">
         <f t="shared" si="3"/>
-        <v>102010.203125</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100952.52222419027</v>
+      </c>
+      <c r="M228">
+        <v>1057.68090080973</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>73.099999999999994</v>
       </c>
@@ -7977,10 +8664,13 @@
       </c>
       <c r="K229">
         <f t="shared" si="3"/>
-        <v>100792.6396484375</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+        <v>99740.986302774225</v>
+      </c>
+      <c r="M229">
+        <v>1051.6533456632701</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>73.400000000000006</v>
       </c>
@@ -8010,10 +8700,13 @@
       </c>
       <c r="K230">
         <f t="shared" si="3"/>
-        <v>99516.2919921875</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+        <v>98470.228719627645</v>
+      </c>
+      <c r="M230">
+        <v>1046.06327255985</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>73.7</v>
       </c>
@@ -8043,10 +8736,13 @@
       </c>
       <c r="K231">
         <f t="shared" si="3"/>
-        <v>98298.865934017522</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+        <v>97257.963812130067</v>
+      </c>
+      <c r="M231">
+        <v>1040.90212188745</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>74</v>
       </c>
@@ -8076,10 +8772,13 @@
       </c>
       <c r="K232">
         <f t="shared" si="3"/>
-        <v>96922.967345436191</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95886.806011402106</v>
+      </c>
+      <c r="M232">
+        <v>1036.16133403409</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>74.3</v>
       </c>
@@ -8109,10 +8808,13 @@
       </c>
       <c r="K233">
         <f t="shared" si="3"/>
-        <v>95931.996325921791</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+        <v>94900.163976534051</v>
+      </c>
+      <c r="M233">
+        <v>1031.8323493877399</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>74.599999999999994</v>
       </c>
@@ -8142,10 +8844,13 @@
       </c>
       <c r="K234">
         <f t="shared" si="3"/>
-        <v>94619.948367999736</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+        <v>93592.041759663334</v>
+      </c>
+      <c r="M234">
+        <v>1027.9066083364</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>74.900000000000006</v>
       </c>
@@ -8175,10 +8880,13 @@
       </c>
       <c r="K235">
         <f t="shared" si="3"/>
-        <v>93693.191050406705</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+        <v>92668.81549913864</v>
+      </c>
+      <c r="M235">
+        <v>1024.37555126807</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>75.2</v>
       </c>
@@ -8208,10 +8916,13 @@
       </c>
       <c r="K236">
         <f t="shared" si="3"/>
-        <v>92470.451327825125</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+        <v>91449.220709254398</v>
+      </c>
+      <c r="M236">
+        <v>1021.23061857073</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>75.5</v>
       </c>
@@ -8241,10 +8952,13 @@
       </c>
       <c r="K237">
         <f t="shared" si="3"/>
-        <v>91619.699687223561</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90601.236436591178</v>
+      </c>
+      <c r="M237">
+        <v>1018.46325063238</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>75.8</v>
       </c>
@@ -8274,10 +8988,13 @@
       </c>
       <c r="K238">
         <f t="shared" si="3"/>
-        <v>90296.930521259972</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89280.865633418958</v>
+      </c>
+      <c r="M238">
+        <v>1016.06488784101</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>76.099999999999994</v>
       </c>
@@ -8307,10 +9024,13 @@
       </c>
       <c r="K239">
         <f t="shared" si="3"/>
-        <v>89353.913099410565</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+        <v>88339.886128825936</v>
+      </c>
+      <c r="M239">
+        <v>1014.02697058463</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>76.400000000000006</v>
       </c>
@@ -8340,10 +9060,13 @@
       </c>
       <c r="K240">
         <f t="shared" si="3"/>
-        <v>88421.681796973833</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+        <v>87409.340857722622</v>
+      </c>
+      <c r="M240">
+        <v>1012.34093925121</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>76.7</v>
       </c>
@@ -8373,10 +9096,13 @@
       </c>
       <c r="K241">
         <f t="shared" si="3"/>
-        <v>87411.206011636998</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+        <v>86400.207777408243</v>
+      </c>
+      <c r="M241">
+        <v>1010.99823422875</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>77</v>
       </c>
@@ -8406,10 +9132,13 @@
       </c>
       <c r="K242">
         <f t="shared" si="3"/>
-        <v>86306.521017603809</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85296.530721698568</v>
+      </c>
+      <c r="M242">
+        <v>1009.99029590524</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>77.3</v>
       </c>
@@ -8439,10 +9168,13 @@
       </c>
       <c r="K243">
         <f t="shared" si="3"/>
-        <v>85454.754327595729</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+        <v>84445.445762927033</v>
+      </c>
+      <c r="M243">
+        <v>1009.30856466869</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>77.599999999999994</v>
       </c>
@@ -8472,10 +9204,13 @@
       </c>
       <c r="K244">
         <f t="shared" si="3"/>
-        <v>84236.231941610589</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+        <v>83227.287460703519</v>
+      </c>
+      <c r="M244">
+        <v>1008.94448090707</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>77.900000000000006</v>
       </c>
@@ -8505,10 +9240,13 @@
       </c>
       <c r="K245">
         <f t="shared" si="3"/>
-        <v>83269.156164048269</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+        <v>82260.26667903988</v>
+      </c>
+      <c r="M245">
+        <v>1008.88948500839</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>78.2</v>
       </c>
@@ -8538,10 +9276,13 @@
       </c>
       <c r="K246">
         <f t="shared" si="3"/>
-        <v>82403.264996327154</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+        <v>81394.129978966521</v>
+      </c>
+      <c r="M246">
+        <v>1009.1350173606399</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>78.5</v>
       </c>
@@ -8571,10 +9312,13 @@
       </c>
       <c r="K247">
         <f t="shared" si="3"/>
-        <v>81337.091767033126</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80327.419248681326</v>
+      </c>
+      <c r="M247">
+        <v>1009.6725183518</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>78.8</v>
       </c>
@@ -8604,10 +9348,13 @@
       </c>
       <c r="K248">
         <f t="shared" si="3"/>
-        <v>80490.455146849097</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+        <v>79479.961718479215</v>
+      </c>
+      <c r="M248">
+        <v>1010.49342836988</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>79.099999999999994</v>
       </c>
@@ -8637,10 +9384,13 @@
       </c>
       <c r="K249">
         <f t="shared" si="3"/>
-        <v>79502.550566537568</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78490.961378734704</v>
+      </c>
+      <c r="M249">
+        <v>1011.58918780287</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>79.400000000000006</v>
       </c>
@@ -8670,10 +9420,13 @@
       </c>
       <c r="K250">
         <f t="shared" si="3"/>
-        <v>78600.042919263287</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+        <v>77587.091682224534</v>
+      </c>
+      <c r="M250">
+        <v>1012.95123703875</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>79.7</v>
       </c>
@@ -8703,10 +9456,13 @@
       </c>
       <c r="K251">
         <f t="shared" si="3"/>
-        <v>77759.072381672406</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76744.501365206874</v>
+      </c>
+      <c r="M251">
+        <v>1014.57101646553</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>80</v>
       </c>
@@ -8736,10 +9492,13 @@
       </c>
       <c r="K252">
         <f t="shared" si="3"/>
-        <v>76743.97354270106</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75727.533576229864</v>
+      </c>
+      <c r="M252">
+        <v>1016.43996647119</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>80.3</v>
       </c>
@@ -8769,10 +9528,13 @@
       </c>
       <c r="K253">
         <f t="shared" si="3"/>
-        <v>75947.097657071281</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74928.548129627554</v>
+      </c>
+      <c r="M253">
+        <v>1018.54952744372</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>80.599999999999994</v>
       </c>
@@ -8802,10 +9564,13 @@
       </c>
       <c r="K254">
         <f t="shared" si="3"/>
-        <v>74992.770641113806</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73971.879501342672</v>
+      </c>
+      <c r="M254">
+        <v>1020.89113977113</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>80.900000000000006</v>
       </c>
@@ -8835,10 +9600,13 @@
       </c>
       <c r="K255">
         <f t="shared" si="3"/>
-        <v>74165.394623416374</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73141.938379574975</v>
+      </c>
+      <c r="M255">
+        <v>1023.4562438414</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>81.2</v>
       </c>
@@ -8868,10 +9636,13 @@
       </c>
       <c r="K256">
         <f t="shared" si="3"/>
-        <v>73373.388362795697</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72347.152082753164</v>
+      </c>
+      <c r="M256">
+        <v>1026.2362800425301</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>81.5</v>
       </c>
@@ -8901,10 +9672,13 @@
       </c>
       <c r="K257">
         <f t="shared" si="3"/>
-        <v>72446.18159700204</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+        <v>71416.958908239525</v>
+      </c>
+      <c r="M257">
+        <v>1029.22268876251</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>81.8</v>
       </c>
@@ -8934,10 +9708,13 @@
       </c>
       <c r="K258">
         <f t="shared" si="3"/>
-        <v>71623.73370814744</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70591.326797758113</v>
+      </c>
+      <c r="M258">
+        <v>1032.4069103893301</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>82.1</v>
       </c>
@@ -8966,11 +9743,14 @@
         <v>77486.045374391208</v>
       </c>
       <c r="K259">
-        <f t="shared" ref="K259:K302" si="4">AVERAGE(B259:I259)</f>
-        <v>70815.522782036758</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K259:K302" si="4">AVERAGE(B259:I259)-M259</f>
+        <v>69779.742396725764</v>
+      </c>
+      <c r="M259">
+        <v>1035.7803853109899</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>82.4</v>
       </c>
@@ -9000,10 +9780,13 @@
       </c>
       <c r="K260">
         <f t="shared" si="4"/>
-        <v>70006.238745997893</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68966.904192082424</v>
+      </c>
+      <c r="M260">
+        <v>1039.33455391547</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>82.7</v>
       </c>
@@ -9033,10 +9816,13 @@
       </c>
       <c r="K261">
         <f t="shared" si="4"/>
-        <v>69219.26504454542</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68176.204187954645</v>
+      </c>
+      <c r="M261">
+        <v>1043.0608565907801</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>83</v>
       </c>
@@ -9066,10 +9852,13 @@
       </c>
       <c r="K262">
         <f t="shared" si="4"/>
-        <v>68346.947180979332</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67299.996447254438</v>
+      </c>
+      <c r="M262">
+        <v>1046.9507337248999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>83.3</v>
       </c>
@@ -9099,10 +9888,13 @@
       </c>
       <c r="K263">
         <f t="shared" si="4"/>
-        <v>67646.215751321986</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66595.22012561615</v>
+      </c>
+      <c r="M263">
+        <v>1050.99562570583</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>83.6</v>
       </c>
@@ -9132,10 +9924,13 @@
       </c>
       <c r="K264">
         <f t="shared" si="4"/>
-        <v>66894.740728404693</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65839.553755483139</v>
+      </c>
+      <c r="M264">
+        <v>1055.18697292156</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>83.9</v>
       </c>
@@ -9165,10 +9960,13 @@
       </c>
       <c r="K265">
         <f t="shared" si="4"/>
-        <v>66096.366019538473</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65036.849803778379</v>
+      </c>
+      <c r="M265">
+        <v>1059.5162157600901</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>84.2</v>
       </c>
@@ -9198,10 +9996,13 @@
       </c>
       <c r="K266">
         <f t="shared" si="4"/>
-        <v>65306.672325899199</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64242.697531289799</v>
+      </c>
+      <c r="M266">
+        <v>1063.9747946094001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>84.5</v>
       </c>
@@ -9231,10 +10032,13 @@
       </c>
       <c r="K267">
         <f t="shared" si="4"/>
-        <v>64555.929301876</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+        <v>63487.375152018511</v>
+      </c>
+      <c r="M267">
+        <v>1068.5541498574901</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>84.8</v>
       </c>
@@ -9264,10 +10068,13 @@
       </c>
       <c r="K268">
         <f t="shared" si="4"/>
-        <v>63813.806139431479</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62740.560417539127</v>
+      </c>
+      <c r="M268">
+        <v>1073.24572189235</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>85.1</v>
       </c>
@@ -9297,10 +10104,13 @@
       </c>
       <c r="K269">
         <f t="shared" si="4"/>
-        <v>63080.203978888305</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62002.163027786322</v>
+      </c>
+      <c r="M269">
+        <v>1078.04095110198</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>85.4</v>
       </c>
@@ -9330,10 +10140,13 @@
       </c>
       <c r="K270">
         <f t="shared" si="4"/>
-        <v>62355.02509317646</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61272.093815302091</v>
+      </c>
+      <c r="M270">
+        <v>1082.9312778743699</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>85.7</v>
       </c>
@@ -9363,10 +10176,13 @@
       </c>
       <c r="K271">
         <f t="shared" si="4"/>
-        <v>61638.172874869968</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60550.264732272459</v>
+      </c>
+      <c r="M271">
+        <v>1087.9081425975101</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>86</v>
       </c>
@@ -9396,10 +10212,13 @@
       </c>
       <c r="K272">
         <f t="shared" si="4"/>
-        <v>60929.551823372298</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59836.588837712909</v>
+      </c>
+      <c r="M272">
+        <v>1092.9629856593899</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>86.3</v>
       </c>
@@ -9429,10 +10248,13 @@
       </c>
       <c r="K273">
         <f t="shared" si="4"/>
-        <v>60229.067532247682</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59130.980284799669</v>
+      </c>
+      <c r="M273">
+        <v>1098.08724744801</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>86.6</v>
       </c>
@@ -9462,10 +10284,13 @@
       </c>
       <c r="K274">
         <f t="shared" si="4"/>
-        <v>59536.626676697953</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58433.354308346592</v>
+      </c>
+      <c r="M274">
+        <v>1103.27236835136</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>86.9</v>
       </c>
@@ -9495,10 +10320,13 @@
       </c>
       <c r="K275">
         <f t="shared" si="4"/>
-        <v>58852.137001181967</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57743.62721242453</v>
+      </c>
+      <c r="M275">
+        <v>1108.50978875744</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>87.2</v>
       </c>
@@ -9528,10 +10356,13 @@
       </c>
       <c r="K276">
         <f t="shared" si="4"/>
-        <v>58175.507307177126</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57061.716358122896</v>
+      </c>
+      <c r="M276">
+        <v>1113.7909490542299</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>87.5</v>
       </c>
@@ -9561,10 +10392,13 @@
       </c>
       <c r="K277">
         <f t="shared" si="4"/>
-        <v>57506.64744108064</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+        <v>56387.540151450914</v>
+      </c>
+      <c r="M277">
+        <v>1119.1072896297301</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>87.8</v>
       </c>
@@ -9594,10 +10428,13 @@
       </c>
       <c r="K278">
         <f t="shared" si="4"/>
-        <v>56845.468282248847</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55721.018031376909</v>
+      </c>
+      <c r="M278">
+        <v>1124.4502508719399</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>88.1</v>
       </c>
@@ -9627,10 +10464,13 @@
       </c>
       <c r="K279">
         <f t="shared" si="4"/>
-        <v>56191.881731173969</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55062.070458005132</v>
+      </c>
+      <c r="M279">
+        <v>1129.81127316884</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>88.4</v>
       </c>
@@ -9660,10 +10500,13 @@
       </c>
       <c r="K280">
         <f t="shared" si="4"/>
-        <v>55545.800697795326</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54410.618900886897</v>
+      </c>
+      <c r="M280">
+        <v>1135.18179690843</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>88.7</v>
       </c>
@@ -9693,10 +10536,13 @@
       </c>
       <c r="K281">
         <f t="shared" si="4"/>
-        <v>54907.139089944932</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53766.585827466231</v>
+      </c>
+      <c r="M281">
+        <v>1140.5532624786999</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>89</v>
       </c>
@@ -9726,10 +10572,13 @@
       </c>
       <c r="K282">
         <f t="shared" si="4"/>
-        <v>54275.811801924698</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53129.894691657057</v>
+      </c>
+      <c r="M282">
+        <v>1145.9171102676401</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>89.3</v>
       </c>
@@ -9759,10 +10608,13 @@
       </c>
       <c r="K283">
         <f t="shared" si="4"/>
-        <v>53651.734703214432</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+        <v>52500.469922551172</v>
+      </c>
+      <c r="M283">
+        <v>1151.2647806632599</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>89.6</v>
       </c>
@@ -9792,10 +10644,13 @@
       </c>
       <c r="K284">
         <f t="shared" si="4"/>
-        <v>53034.824627309084</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+        <v>51878.236913255554</v>
+      </c>
+      <c r="M284">
+        <v>1156.5877140535299</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>89.9</v>
       </c>
@@ -9825,10 +10680,13 @@
       </c>
       <c r="K285">
         <f t="shared" si="4"/>
-        <v>52424.99936068352</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+        <v>51263.122009857063</v>
+      </c>
+      <c r="M285">
+        <v>1161.8773508264601</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>90.2</v>
       </c>
@@ -9858,10 +10716,13 @@
       </c>
       <c r="K286">
         <f t="shared" si="4"/>
-        <v>51822.177631883525</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50655.052500513499</v>
+      </c>
+      <c r="M286">
+        <v>1167.12513137003</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>90.5</v>
       </c>
@@ -9891,10 +10752,13 @@
       </c>
       <c r="K287">
         <f t="shared" si="4"/>
-        <v>51226.279100741704</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50053.956604669467</v>
+      </c>
+      <c r="M287">
+        <v>1172.32249607224</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>90.8</v>
       </c>
@@ -9924,10 +10788,13 @@
       </c>
       <c r="K288">
         <f t="shared" si="4"/>
-        <v>50637.224347716372</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+        <v>49459.763462395284</v>
+      </c>
+      <c r="M288">
+        <v>1177.46088532109</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>91.1</v>
       </c>
@@ -9957,10 +10824,13 @@
       </c>
       <c r="K289">
         <f t="shared" si="4"/>
-        <v>50054.934863352857</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+        <v>48872.4031238483</v>
+      </c>
+      <c r="M289">
+        <v>1182.5317395045599</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>91.4</v>
       </c>
@@ -9990,10 +10860,13 @@
       </c>
       <c r="K290">
         <f t="shared" si="4"/>
-        <v>49479.333037864781</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+        <v>48291.806538854129</v>
+      </c>
+      <c r="M290">
+        <v>1187.52649901065</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>91.7</v>
       </c>
@@ -10023,10 +10896,13 @@
       </c>
       <c r="K291">
         <f t="shared" si="4"/>
-        <v>48910.342150835058</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+        <v>47717.905546607712</v>
+      </c>
+      <c r="M291">
+        <v>1192.43660422735</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>92</v>
       </c>
@@ -10056,10 +10932,13 @@
       </c>
       <c r="K292">
         <f t="shared" si="4"/>
-        <v>48347.886361034332</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+        <v>47150.63286549168</v>
+      </c>
+      <c r="M292">
+        <v>1197.2534955426499</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>92.3</v>
       </c>
@@ -10089,10 +10968,13 @@
       </c>
       <c r="K293">
         <f t="shared" si="4"/>
-        <v>47791.890696355804</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+        <v>46589.922083011246</v>
+      </c>
+      <c r="M293">
+        <v>1201.96861334456</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>92.6</v>
       </c>
@@ -10122,10 +11004,13 @@
       </c>
       <c r="K294">
         <f t="shared" si="4"/>
-        <v>47242.281043865521</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+        <v>46035.707645844472</v>
+      </c>
+      <c r="M294">
+        <v>1206.57339802105</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>92.9</v>
       </c>
@@ -10155,10 +11040,13 @@
       </c>
       <c r="K295">
         <f t="shared" si="4"/>
-        <v>46698.984139966065</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45487.924850005933</v>
+      </c>
+      <c r="M295">
+        <v>1211.0592899601299</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>93.2</v>
       </c>
@@ -10188,10 +11076,13 @@
       </c>
       <c r="K296">
         <f t="shared" si="4"/>
-        <v>46161.927560673146</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44946.509831123367</v>
+      </c>
+      <c r="M296">
+        <v>1215.41772954978</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>93.5</v>
       </c>
@@ -10221,10 +11112,13 @@
       </c>
       <c r="K297">
         <f t="shared" si="4"/>
-        <v>45631.039712003039</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44411.399554825039</v>
+      </c>
+      <c r="M297">
+        <v>1219.640157178</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>93.8</v>
       </c>
@@ -10254,10 +11148,13 @@
       </c>
       <c r="K298">
         <f t="shared" si="4"/>
-        <v>45106.249820470235</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43882.531807237443</v>
+      </c>
+      <c r="M298">
+        <v>1223.7180132327901</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>94.1</v>
       </c>
@@ -10287,10 +11184,13 @@
       </c>
       <c r="K299">
         <f t="shared" si="4"/>
-        <v>44587.487923693559</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43359.845185591432</v>
+      </c>
+      <c r="M299">
+        <v>1227.6427381021299</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>94.4</v>
       </c>
@@ -10320,10 +11220,13 @@
       </c>
       <c r="K300">
         <f t="shared" si="4"/>
-        <v>44074.684861109999</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+        <v>42843.279088935982</v>
+      </c>
+      <c r="M300">
+        <v>1231.4057721740201</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>94.7</v>
       </c>
@@ -10353,10 +11256,13 @@
       </c>
       <c r="K301">
         <f t="shared" si="4"/>
-        <v>43567.772264794425</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+        <v>42332.773708957975</v>
+      </c>
+      <c r="M301">
+        <v>1234.9985558364499</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>95</v>
       </c>
@@ -10386,7 +11292,10 @@
       </c>
       <c r="K302">
         <f t="shared" si="4"/>
-        <v>43066.682550384714</v>
+        <v>41828.270020907294</v>
+      </c>
+      <c r="M302">
+        <v>1238.4125294774201</v>
       </c>
     </row>
   </sheetData>
